--- a/biology/Histoire de la zoologie et de la botanique/Ashton_Lever/Ashton_Lever.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ashton_Lever/Ashton_Lever.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ashton Lever est un collectionneur britannique, né le 5 mars 1729 à Alkrington près de Manchester et mort le 24 janvier 1788 à Manchester.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence une immense collection vers 1760 sans que l'on sache exactement ses motivations premières. Il se met aussitôt à acheter des collections de coquillages exotiques, de fossiles, d'oiseaux naturalisés, de costumes traditionnels, d'armes et d'autres curiosités. Il acquiert ainsi une partie des collections que Johann Reinhold Forster, ruiné, est obligé de vendre à son retour à Londres. La première mention de son cabinet de curiosités date de 1773 et mentionne 1 300 boîtes vitrées réparties dans sept pièces différentes.
 En 1774, il installe son musée à Londres et le fait visiter contre un droit de visite. Celui-ci est destiné à le rembourser pour ses dépenses et lui permettre d'acheter de nouveaux spécimens. Malgré l'énorme succès qu'il rencontre au début, ces recettes ne lui permettent pas de faire face aux coûts exorbitants de l'entretien de ses collections. Mais celles-ci sont célèbres pour leur richesse et attirent de nombreux scientifiques, notamment Thomas Pennant et John Latham, qui les utilisent pour leurs publications.
@@ -545,7 +559,9 @@
           <t>Bibliographe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Walters (2003). A Concise History of Ornithology. Yale University Press (New Haven, Connecticut) : 255 p.  (ISBN 0-300-09073-0)
 </t>
